--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H2">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I2">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J2">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>18385.9034138332</v>
+        <v>3338.490700558581</v>
       </c>
       <c r="R2">
-        <v>18385.9034138332</v>
+        <v>30046.41630502723</v>
       </c>
       <c r="S2">
-        <v>0.1619063852154301</v>
+        <v>0.02473176079886628</v>
       </c>
       <c r="T2">
-        <v>0.1619063852154301</v>
+        <v>0.02473176079886628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H3">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I3">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J3">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>33850.74427878323</v>
+        <v>5499.87690250591</v>
       </c>
       <c r="R3">
-        <v>33850.74427878323</v>
+        <v>49498.89212255319</v>
       </c>
       <c r="S3">
-        <v>0.2980898745995892</v>
+        <v>0.04074345330757616</v>
       </c>
       <c r="T3">
-        <v>0.2980898745995892</v>
+        <v>0.04074345330757615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H4">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I4">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J4">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>12851.28817806701</v>
+        <v>2206.483298622436</v>
       </c>
       <c r="R4">
-        <v>12851.28817806701</v>
+        <v>19858.34968760192</v>
       </c>
       <c r="S4">
-        <v>0.1131685274005703</v>
+        <v>0.01634577479550657</v>
       </c>
       <c r="T4">
-        <v>0.1131685274005703</v>
+        <v>0.01634577479550657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H5">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I5">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J5">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>29167.62069783756</v>
+        <v>4867.805325371315</v>
       </c>
       <c r="R5">
-        <v>29167.62069783756</v>
+        <v>43810.24792834184</v>
       </c>
       <c r="S5">
-        <v>0.2568502578431137</v>
+        <v>0.03606102509208362</v>
       </c>
       <c r="T5">
-        <v>0.2568502578431137</v>
+        <v>0.03606102509208362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.5734075612119</v>
+        <v>208.8859453333334</v>
       </c>
       <c r="H6">
-        <v>42.5734075612119</v>
+        <v>626.6578360000001</v>
       </c>
       <c r="I6">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566348</v>
       </c>
       <c r="J6">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>3765.385919160576</v>
+        <v>20668.57998037642</v>
       </c>
       <c r="R6">
-        <v>3765.385919160576</v>
+        <v>186017.2198233878</v>
       </c>
       <c r="S6">
-        <v>0.03315801292927968</v>
+        <v>0.153114212970963</v>
       </c>
       <c r="T6">
-        <v>0.03315801292927968</v>
+        <v>0.153114212970963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.5734075612119</v>
+        <v>208.8859453333334</v>
       </c>
       <c r="H7">
-        <v>42.5734075612119</v>
+        <v>626.6578360000001</v>
       </c>
       <c r="I7">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566348</v>
       </c>
       <c r="J7">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>6932.545711326677</v>
+        <v>34049.71163245979</v>
       </c>
       <c r="R7">
-        <v>6932.545711326677</v>
+        <v>306447.4046921381</v>
       </c>
       <c r="S7">
-        <v>0.06104804268780969</v>
+        <v>0.25224252481023</v>
       </c>
       <c r="T7">
-        <v>0.06104804268780969</v>
+        <v>0.25224252481023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.5734075612119</v>
+        <v>208.8859453333334</v>
       </c>
       <c r="H8">
-        <v>42.5734075612119</v>
+        <v>626.6578360000001</v>
       </c>
       <c r="I8">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566348</v>
       </c>
       <c r="J8">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>2631.910897147462</v>
+        <v>13660.32756218617</v>
       </c>
       <c r="R8">
-        <v>2631.910897147462</v>
+        <v>122942.9480596756</v>
       </c>
       <c r="S8">
-        <v>0.02317662450275021</v>
+        <v>0.1011966136810332</v>
       </c>
       <c r="T8">
-        <v>0.02317662450275021</v>
+        <v>0.1011966136810332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>208.8859453333334</v>
+      </c>
+      <c r="H9">
+        <v>626.6578360000001</v>
+      </c>
+      <c r="I9">
+        <v>0.7298069855566348</v>
+      </c>
+      <c r="J9">
+        <v>0.7298069855566347</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>30136.55951760045</v>
+      </c>
+      <c r="R9">
+        <v>271229.0356584041</v>
+      </c>
+      <c r="S9">
+        <v>0.2232536340944086</v>
+      </c>
+      <c r="T9">
+        <v>0.2232536340944086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.411091</v>
+      </c>
+      <c r="I10">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J10">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>13.55870257196133</v>
+      </c>
+      <c r="R10">
+        <v>122.028323147652</v>
+      </c>
+      <c r="S10">
+        <v>0.000100443769005142</v>
+      </c>
+      <c r="T10">
+        <v>0.0001004437690051419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.411091</v>
+      </c>
+      <c r="I11">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J11">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>22.33679880881522</v>
+      </c>
+      <c r="R11">
+        <v>201.031189279337</v>
+      </c>
+      <c r="S11">
+        <v>0.0001654724888284366</v>
+      </c>
+      <c r="T11">
+        <v>0.0001654724888284366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.411091</v>
+      </c>
+      <c r="I12">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J12">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>8.961250295235558</v>
+      </c>
+      <c r="R12">
+        <v>80.65125265712001</v>
+      </c>
+      <c r="S12">
+        <v>6.638553724994768E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.638553724994768E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.411091</v>
+      </c>
+      <c r="I13">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J13">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>19.76974941816556</v>
+      </c>
+      <c r="R13">
+        <v>177.92774476349</v>
+      </c>
+      <c r="S13">
+        <v>0.0001464556164801624</v>
+      </c>
+      <c r="T13">
+        <v>0.0001464556164801624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H14">
+        <v>130.372642</v>
+      </c>
+      <c r="I14">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J14">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>98.946724</v>
+      </c>
+      <c r="N14">
+        <v>296.840172</v>
+      </c>
+      <c r="O14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q14">
+        <v>4299.981941708269</v>
+      </c>
+      <c r="R14">
+        <v>38699.83747537442</v>
+      </c>
+      <c r="S14">
+        <v>0.03185455176016518</v>
+      </c>
+      <c r="T14">
+        <v>0.03185455176016518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>42.5734075612119</v>
-      </c>
-      <c r="H9">
-        <v>42.5734075612119</v>
-      </c>
-      <c r="I9">
-        <v>0.1699849549412969</v>
-      </c>
-      <c r="J9">
-        <v>0.1699849549412969</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q9">
-        <v>5973.453998916483</v>
-      </c>
-      <c r="R9">
-        <v>5973.453998916483</v>
-      </c>
-      <c r="S9">
-        <v>0.05260227482145729</v>
-      </c>
-      <c r="T9">
-        <v>0.05260227482145729</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H15">
+        <v>130.372642</v>
+      </c>
+      <c r="I15">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J15">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P15">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q15">
+        <v>7083.851202112654</v>
+      </c>
+      <c r="R15">
+        <v>63754.66081901389</v>
+      </c>
+      <c r="S15">
+        <v>0.05247764010128842</v>
+      </c>
+      <c r="T15">
+        <v>0.05247764010128842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H16">
+        <v>130.372642</v>
+      </c>
+      <c r="I16">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J16">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N16">
+        <v>196.18832</v>
+      </c>
+      <c r="O16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q16">
+        <v>2841.954400882383</v>
+      </c>
+      <c r="R16">
+        <v>25577.58960794144</v>
+      </c>
+      <c r="S16">
+        <v>0.02105338691886977</v>
+      </c>
+      <c r="T16">
+        <v>0.02105338691886977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H17">
+        <v>130.372642</v>
+      </c>
+      <c r="I17">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J17">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N17">
+        <v>432.81839</v>
+      </c>
+      <c r="O17">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P17">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q17">
+        <v>6269.741890054042</v>
+      </c>
+      <c r="R17">
+        <v>56427.67701048638</v>
+      </c>
+      <c r="S17">
+        <v>0.04644666425744546</v>
+      </c>
+      <c r="T17">
+        <v>0.04644666425744546</v>
       </c>
     </row>
   </sheetData>
